--- a/biology/Botanique/Convolvulus_lineatus/Convolvulus_lineatus.xlsx
+++ b/biology/Botanique/Convolvulus_lineatus/Convolvulus_lineatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus lineatus , le Liseron à rayures parallèles ou Liseron rayé, est une espèce végétale de la famille des Convolvulaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Liseron rayé se développe dans des lieux secs en été et humides en hiver, sur substrat argilo-sableux.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Convolvulus lineatus  est originaire des régions et pays suivants[2] : Afghanistan, Albanie, Algérie, Altaï, Baléares, Biélorussie, Bulgarie, Rus d'Europe centrale, Corse, Chypre, Est de la mer Égée, Russie d'Europe de l'Est, Égypte, France, Grèce, Iran, Italie, Kazakhstan, Kirghizistan, Krym, Liban-Syrie,  Libye, Mongolie, Maroc, Caucase du Nord, Pakistan, Palestine, Portugal, Roumanie, Sicile, Russie sud-européenne, Espagne, Tadzhikistan, Transcaucasie, Tunisie, Turquie, Turkménistan, Ukraine, Xinjiang.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Convolvulus lineatus  est originaire des régions et pays suivants : Afghanistan, Albanie, Algérie, Altaï, Baléares, Biélorussie, Bulgarie, Rus d'Europe centrale, Corse, Chypre, Est de la mer Égée, Russie d'Europe de l'Est, Égypte, France, Grèce, Iran, Italie, Kazakhstan, Kirghizistan, Krym, Liban-Syrie,  Libye, Mongolie, Maroc, Caucase du Nord, Pakistan, Palestine, Portugal, Roumanie, Sicile, Russie sud-européenne, Espagne, Tadzhikistan, Transcaucasie, Tunisie, Turquie, Turkménistan, Ukraine, Xinjiang.
 En France, on le trouve principalement en région Méditerranéenne.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace de 5 à 30 cm, gazonnante, soyeuse blanchâtre, à souche sous-ligneuse. Elle possède des feuilles argentées et soyeuses sur les deux faces, linéaires-lancéolées. L'inflorescence est composée de 1 à 4 fleurs. Les fleurs sont roses, en forme d'entonnoir, d'environ 2 à 3 cm, brièvement pédicellées et entourées de bractées.
 </t>
@@ -605,9 +623,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Convolvulus lineatus  a pour synonymes selon World Checklist of Selected Plant Families (WCSP)                (19 décembre 2020)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Convolvulus lineatus  a pour synonymes selon World Checklist of Selected Plant Families (WCSP)                (19 décembre 2020) :
 synonyme homotypique :
 Convolvulus humilis Salisb., Prodr. Stirp. Chap. Allerton: 125 (1796), nom. illeg.
 synonymes hétérotypiques :
